--- a/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
+++ b/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Val\Desktop\W25_4495_S2_ValeriiaN\DocumentsAndReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A7FD6-51F3-4000-B0DC-1B90A44B94C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1C67B9-FB50-49E4-A947-4C02788BB656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>I worked on refining the user registration process for the login page in my application. After users click "Register" on the login page, they are redirected to a user type selection page. I configured Spring Security to allow access to the /select-user-type endpoint, ensuring that users can view this page without needing to authenticate. Additionally, I updated the SecurityConfig to manage redirections correctly and resolved an HTTP 403 (Forbidden) error by adjusting the necessary permissions. I also verified that the "Go Back" button on the selection page accurately redirects users back to the login page.</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>07.02.2025</t>
+  </si>
+  <si>
+    <t>I worked on setting up the user registration flow for the NativeSpark project. Currently, I am implementing a multi-step registration process where users first select their type: Business, Indigenous Entrepreneur, or Basic User. 
+For business users, I have designed a two-step process. In Step 1, users provide their email, password, and user type, which are stored in the users table. In Step 2, users enter their business details and upload a logo, which is saved in the business_users table.
+I have set up the necessary entities (User and BusinessUser), as well as repositories, services, and controllers to manage data persistence and form submission. Additionally, I created Thymeleaf templates for the registration pages. 
+I also spent time debugging issues related to database mapping. Despite these efforts, saving BusinessUser data in the database is still not functioning correctly, and I will need to continue troubleshooting this issue in the next session. I also plan to implement a similar process for the other two user types.</t>
   </si>
 </sst>
 </file>
@@ -146,13 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,17 +446,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.77734375" customWidth="1"/>
+    <col min="3" max="3" width="81.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -461,10 +474,10 @@
       </c>
       <c r="G1">
         <f>SUM(B2:B80)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -473,6 +486,13 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <f>120-G1</f>
+        <v>103.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -486,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -508,7 +528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -519,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -530,7 +550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -541,8 +561,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1">
@@ -551,6 +571,677 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="10" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
+++ b/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Val\Desktop\W25_4495_S2_ValeriiaN\DocumentsAndReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1C67B9-FB50-49E4-A947-4C02788BB656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDA893C-88EB-45F6-AD1B-EAC0C644218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,15 @@
 For business users, I have designed a two-step process. In Step 1, users provide their email, password, and user type, which are stored in the users table. In Step 2, users enter their business details and upload a logo, which is saved in the business_users table.
 I have set up the necessary entities (User and BusinessUser), as well as repositories, services, and controllers to manage data persistence and form submission. Additionally, I created Thymeleaf templates for the registration pages. 
 I also spent time debugging issues related to database mapping. Despite these efforts, saving BusinessUser data in the database is still not functioning correctly, and I will need to continue troubleshooting this issue in the next session. I also plan to implement a similar process for the other two user types.</t>
+  </si>
+  <si>
+    <t>09.02.2025</t>
+  </si>
+  <si>
+    <t>I focused on debugging the issue where user data wasn't saved in the database after Step 2 of registration. Initially, there were errors with the @JoinColumn reference in the BusinessUser entity. After fixing this, I encountered another problem: uploaded logo files were not being saved correctly, leading to an error. I updated the BusinessUserService to ensure the upload directory exists before saving files. The application was trying to save files in a non-existent directory within the Tomcat temporary workspace. I modified the code to create the directory if it didn't exist and changed the file-saving logic to use `Files.copy()`, ensuring proper storage of uploaded files.
+I implemented the Entrepreneur User Registration process, following the same structure as the Business User Registration. Similar to the Business Registration, the entrepreneur registration consists of two steps. 
+In Step 1, the user enters their email and password, which are stored in the users table with the user_type set to "ENTREPRENEUR." In Step 2, the user provides personal details, including their first name, last name, a brief description about themselves, indigenous identity, and a profile photo. This information is saved in the entrepreneur_users table and is linked to the corresponding user.
+Writing logs and progress report 1.</t>
   </si>
 </sst>
 </file>
@@ -158,14 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +481,7 @@
       </c>
       <c r="G1">
         <f>SUM(B2:B80)</f>
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -492,7 +499,7 @@
       </c>
       <c r="G2">
         <f>120-G1</f>
-        <v>103.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -573,530 +580,536 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>2.5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
+    <row r="11" spans="1:7" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="4"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="4"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="4"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="4"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="4"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="4"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="4"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="4"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="4"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="4"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="4"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="4"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="4"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="4"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="4"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="4"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="4"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="4"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="4"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="4"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="4"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="4"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="4"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="4"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="4"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="4"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="4"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="4"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="4"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="4"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="4"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="4"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="4"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="4"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="4"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="4"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="4"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="4"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="4"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="4"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="4"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="4"/>
+      <c r="C102" s="1"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="4"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="4"/>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="4"/>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>

--- a/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
+++ b/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Val\Desktop\W25_4495_S2_ValeriiaN\DocumentsAndReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDA893C-88EB-45F6-AD1B-EAC0C644218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B26BF8-930B-41E0-8887-599BA00A33D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,16 @@
 I implemented the Entrepreneur User Registration process, following the same structure as the Business User Registration. Similar to the Business Registration, the entrepreneur registration consists of two steps. 
 In Step 1, the user enters their email and password, which are stored in the users table with the user_type set to "ENTREPRENEUR." In Step 2, the user provides personal details, including their first name, last name, a brief description about themselves, indigenous identity, and a profile photo. This information is saved in the entrepreneur_users table and is linked to the corresponding user.
 Writing logs and progress report 1.</t>
+  </si>
+  <si>
+    <t>11.02.2025</t>
+  </si>
+  <si>
+    <t>I implemented the Basic User Registration process, following the same structure as the Entrepreneur User Registration. Similar to the Entrepreneur Registration, the basic registration consists of two steps. 
+In Step 1, the user enters their email and password, which are stored in the users table with the user_type set to "BASIC." In Step 2, the user provides personal details, including their first name, last name, a brief description about themselves, and a profile photo. This information is saved in the basic_users table and is linked to the corresponding user. This time without debugging issues.
+Initially, passwords were stored in plain text, but I needed to implement encryption using a PasswordEncoder. I updated the UserService class to include password encoding before saving user data to the database. However, I encountered an issue because UserService implemented UserDetailsService but did not override the `loadUserByUsername(String username)` method. This omission caused an error during the authentication setup in SecurityConfig.java.
+To resolve this, I implemented the missing `loadUserByUsername` method in UserService, ensuring that it retrieves user data from the database and returns a UserDetails object. This change enabled authentication to function properly with Spring Security. Additionally, I updated the authentication manager in SecurityConfig to utilize UserService for user authentication and to encode passwords before validation.
+Some modifications in htmls files.</t>
   </si>
 </sst>
 </file>
@@ -455,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +491,7 @@
       </c>
       <c r="G1">
         <f>SUM(B2:B80)</f>
-        <v>19.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -499,7 +509,7 @@
       </c>
       <c r="G2">
         <f>120-G1</f>
-        <v>100.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -601,10 +611,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="12" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>

--- a/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
+++ b/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Val\Desktop\W25_4495_S2_ValeriiaN\DocumentsAndReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B26BF8-930B-41E0-8887-599BA00A33D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3D4050-FF9A-4123-A641-AE824B9CF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,13 @@
 Initially, passwords were stored in plain text, but I needed to implement encryption using a PasswordEncoder. I updated the UserService class to include password encoding before saving user data to the database. However, I encountered an issue because UserService implemented UserDetailsService but did not override the `loadUserByUsername(String username)` method. This omission caused an error during the authentication setup in SecurityConfig.java.
 To resolve this, I implemented the missing `loadUserByUsername` method in UserService, ensuring that it retrieves user data from the database and returns a UserDetails object. This change enabled authentication to function properly with Spring Security. Additionally, I updated the authentication manager in SecurityConfig to utilize UserService for user authentication and to encode passwords before validation.
 Some modifications in htmls files.</t>
+  </si>
+  <si>
+    <t>12.02.2025</t>
+  </si>
+  <si>
+    <t>Today, I added a confirmation message for successful registration. However, I encountered an issue where the data from Step 2 of the business registration process was not being saved to the database. After debugging, I discovered that the problem was caused by the `event.preventDefault();` call in the form submission, which was preventing the form from sending data to the backend. To resolve this issue, I removed the `onsubmit` event. Once I verified that the business registration flow was working correctly, I implemented the same functionality for the Entrepreneur and Basic User registration processes to ensure consistency across all user types.
+New page subscription, need to connect it to all users.</t>
   </si>
 </sst>
 </file>
@@ -465,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +498,7 @@
       </c>
       <c r="G1">
         <f>SUM(B2:B80)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -509,7 +516,7 @@
       </c>
       <c r="G2">
         <f>120-G1</f>
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -622,10 +629,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>

--- a/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
+++ b/DocumentsAndReports/ValeriiaN_Progress_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Val\Desktop\W25_4495_S2_ValeriiaN\DocumentsAndReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3D4050-FF9A-4123-A641-AE824B9CF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC168C4C-5F4D-457D-842B-79B09FBE7D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,12 @@
   <si>
     <t>Today, I added a confirmation message for successful registration. However, I encountered an issue where the data from Step 2 of the business registration process was not being saved to the database. After debugging, I discovered that the problem was caused by the `event.preventDefault();` call in the form submission, which was preventing the form from sending data to the backend. To resolve this issue, I removed the `onsubmit` event. Once I verified that the business registration flow was working correctly, I implemented the same functionality for the Entrepreneur and Basic User registration processes to ensure consistency across all user types.
 New page subscription, need to connect it to all users.</t>
+  </si>
+  <si>
+    <t>13.02.2025</t>
+  </si>
+  <si>
+    <t>Styling home page. I was trying to implement subscription as step 3 of registration, but half way throug decided to leave for future account settings.</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +504,7 @@
       </c>
       <c r="G1">
         <f>SUM(B2:B80)</f>
-        <v>23</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -516,7 +522,7 @@
       </c>
       <c r="G2">
         <f>120-G1</f>
-        <v>97</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -640,10 +646,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
